--- a/ABS Population by State-Territory and Age.xlsx
+++ b/ABS Population by State-Territory and Age.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7A7B3C-EFCC-4C4A-AEF4-863940E3FD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8E618C-F516-466A-A934-E586C642C9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{AD4D5329-4AF0-4236-9614-1A57A03A5823}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{AD4D5329-4AF0-4236-9614-1A57A03A5823}"/>
   </bookViews>
   <sheets>
-    <sheet name="ABS Population" sheetId="2" r:id="rId1"/>
-    <sheet name="Readme" sheetId="1" r:id="rId2"/>
+    <sheet name="Readme" sheetId="1" r:id="rId1"/>
+    <sheet name="ABS Population" sheetId="2" r:id="rId2"/>
+    <sheet name="Geography - ABS Sort" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'ABS Population'!$A$1:$F$2404</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'ABS Population'!$A$1:$F$2404</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9627" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9638" uniqueCount="121">
   <si>
     <t>Age (years)</t>
   </si>
@@ -402,12 +403,21 @@
   <si>
     <t>31010do002_202209.xlsx</t>
   </si>
+  <si>
+    <t>Geography - Sort</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Other Territories</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +446,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -469,17 +491,126 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -524,14 +655,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{622EB2F3-B0E7-465C-B5BE-64C54D914A6B}" name="ABS_Population" displayName="ABS_Population" ref="A1:F2404" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F2404" xr:uid="{622EB2F3-B0E7-465C-B5BE-64C54D914A6B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{16C3BB3D-0731-4728-99C0-87F7EAE0C8F7}" uniqueName="1" name="Age (years)" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C9FFF014-3F67-44AC-BF25-A13D45334899}" uniqueName="3" name="Gender" queryTableFieldId="7" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{72C5870E-496E-47CE-9A20-1D0FA7BEF0A0}" uniqueName="2" name="Age - Sort" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{16C3BB3D-0731-4728-99C0-87F7EAE0C8F7}" uniqueName="1" name="Age (years)" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{C9FFF014-3F67-44AC-BF25-A13D45334899}" uniqueName="3" name="Gender" queryTableFieldId="7" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{72C5870E-496E-47CE-9A20-1D0FA7BEF0A0}" uniqueName="2" name="Age - Sort" queryTableFieldId="2" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{F8516C92-2876-4757-8010-11F934D8D028}" uniqueName="4" name="Age Category" queryTableFieldId="8"/>
-    <tableColumn id="5" xr3:uid="{CA3D90E4-5A50-4743-89C5-398DFE3B3148}" uniqueName="5" name="State" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{CA3D90E4-5A50-4743-89C5-398DFE3B3148}" uniqueName="5" name="State" queryTableFieldId="5" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{2E3106B7-84AD-42FC-B068-10E3C9CD736C}" uniqueName="6" name="Population" queryTableFieldId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EAEF3738-D805-409C-8492-2EB7873B206C}" name="Geography_ABS_Sort" displayName="Geography_ABS_Sort" ref="A1:B10" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B10" xr:uid="{97550EE1-8E48-412C-9F8C-F181749022D5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C4843385-102B-4DAE-A6C4-DCF8E4B23270}" name="Geography - Sort" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{B482C8D0-2D66-4C86-ACBA-43CF5581C961}" name="Geography" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -831,6 +973,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB9E301-F913-4214-A8A8-798C9590D2F1}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" location="data-downloads-data-cubes" xr:uid="{E4966DC2-B4CA-481F-AD77-9708530C3FD2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64338C9-20ED-4241-9BAE-D5448453E370}">
   <dimension ref="A1:F2404"/>
   <sheetViews>
@@ -48939,80 +49158,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB9E301-F913-4214-A8A8-798C9590D2F1}">
-  <dimension ref="A1:E12"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0D21B3-2251-430D-A180-3EC5A4A3A9CF}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.46484375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>106</v>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" location="data-downloads-data-cubes" xr:uid="{E4966DC2-B4CA-481F-AD77-9708530C3FD2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
